--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848313.439280787</v>
+        <v>1845936.812333421</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>304.8582354258614</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431393</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>176.1581058090401</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267051</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>208.2474868886328</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>110.3838034696614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.4083398772225</v>
       </c>
       <c r="D8" t="n">
-        <v>220.8789552701365</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.8284992587528</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377006</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465707</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.7535669655216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.44181015857173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>157.1838954824118</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6427030833203</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>41.33703994142866</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.6197054599889589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514047</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.902695549579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>756.6369969428285</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>370.8487443445843</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1458.508639459305</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.53015865404</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1235.53015865404</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1235.53015865404</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W4" t="n">
-        <v>1235.53015865404</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>530.7089073188001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360222</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.63763941981</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.37194081306</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148155</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>261.597783425208</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424344</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1524.947328691001</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.53015865404</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854577</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C8" t="n">
-        <v>359.340338545046</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>136.2302827166253</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166253</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816086</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>129.0834785909174</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>550.637687073287</v>
+        <v>615.6449305525906</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>465.5282911402549</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>719.5738700011939</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5844,13 +5844,13 @@
         <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>985.5125840134626</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,13 +6543,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.50206557031</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424032</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.33711846916</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.482284124065</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.880819147006</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.9393975111063</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.3355197601771</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.64270034434959</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092721</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.83108638657316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>68.52575990662532</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>34.97276993489203</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>107.2784330767837</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.75554125013272</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
@@ -26323,37 +26323,37 @@
         <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-786600.2249041168</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718024</v>
+        <v>328151.5586718025</v>
       </c>
       <c r="D6" t="n">
         <v>328151.5586718023</v>
       </c>
       <c r="E6" t="n">
-        <v>-71291.38511941888</v>
+        <v>-71326.12304485431</v>
       </c>
       <c r="F6" t="n">
-        <v>436194.0565051275</v>
+        <v>436159.3185796916</v>
       </c>
       <c r="G6" t="n">
-        <v>436194.0565051268</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="H6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="I6" t="n">
-        <v>436194.0565051273</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951448</v>
+        <v>268554.1407697091</v>
       </c>
       <c r="K6" t="n">
-        <v>436194.0565051269</v>
+        <v>436159.3185796911</v>
       </c>
       <c r="L6" t="n">
-        <v>436194.0565051272</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="M6" t="n">
-        <v>303586.7627762004</v>
+        <v>303552.0248507648</v>
       </c>
       <c r="N6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="O6" t="n">
-        <v>436194.0565051268</v>
+        <v>436159.3185796913</v>
       </c>
       <c r="P6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796915</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>102.0178103158501</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08655370166485</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.50435455269738</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397781</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.3002158843212</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.86455189378506</v>
       </c>
       <c r="D8" t="n">
-        <v>133.8040863505464</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3986548624478</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33272,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,7 +33980,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34790,10 +34790,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3640795072293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>474.0150488837094</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>78.62292123526699</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
